--- a/OranageHRM.xlsx
+++ b/OranageHRM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uuuser\Documents\Jobs\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3F405C-E560-4653-B65B-8CC7B6301032}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25BD95-9AB7-45B2-B689-93F68B610055}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="12195" xr2:uid="{37AB347C-6D01-4C48-A7AB-BED0CB1723F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Version Story" sheetId="3" r:id="rId2"/>
+    <sheet name="Bugreport" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>TestID</t>
   </si>
@@ -320,12 +321,130 @@
   <si>
     <t xml:space="preserve">user should be able to delete the details </t>
   </si>
+  <si>
+    <t xml:space="preserve">Project name </t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module </t>
+  </si>
+  <si>
+    <t>Myinfo</t>
+  </si>
+  <si>
+    <t>Prepared By</t>
+  </si>
+  <si>
+    <t>Mitu</t>
+  </si>
+  <si>
+    <t>Version No:</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>Initial Draft</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>You need to add more test cases, updated few test cases accoridng  inputs provided by team</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviwed by </t>
+  </si>
+  <si>
+    <t>Product manager
+ Developers
+QA team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved by </t>
+  </si>
+  <si>
+    <t>Name of the product manager</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Id </t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build no </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Steps to replicate bug</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Sevirity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority </t>
+  </si>
+  <si>
+    <t>Reported by</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resoulation </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fixed date</t>
+  </si>
+  <si>
+    <t>OHRM_001</t>
+  </si>
+  <si>
+    <t>Orange info</t>
+  </si>
+  <si>
+    <t>Dashborad showed instead of Myinfo tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Launch Browser
+2.Open URL"asdasd.com"
+3.Provide valid username
+4.Provide valid password
+5.click on login button</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,8 +459,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +505,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -402,11 +547,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,6 +670,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,6 +750,99 @@
         <a:xfrm>
           <a:off x="9115425" y="7833654"/>
           <a:ext cx="1647826" cy="929346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F39B48E-8A9D-4367-AB23-FC1DDE3A0CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="8764677"/>
+          <a:ext cx="800100" cy="1359866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1466849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2534048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A634B467-0B5C-4540-9BED-B3A708524D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534274" y="438149"/>
+          <a:ext cx="1457325" cy="2476899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,13 +1609,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4254F494-BC6A-4E81-87E3-B643F2083A43}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3CD5-8513-4A8B-83B4-1E6B277A3E66}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500B0F2E-BD23-40B3-BA32-87D2F60448EC}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F22:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OranageHRM.xlsx
+++ b/OranageHRM.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uuuser\Documents\Jobs\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25BD95-9AB7-45B2-B689-93F68B610055}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA807C0D-C87E-4741-A735-B53E476A7C43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="12195" xr2:uid="{37AB347C-6D01-4C48-A7AB-BED0CB1723F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="12195" activeTab="1" xr2:uid="{37AB347C-6D01-4C48-A7AB-BED0CB1723F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="2" r:id="rId1"/>
-    <sheet name="Version Story" sheetId="3" r:id="rId2"/>
-    <sheet name="Bugreport" sheetId="5" r:id="rId3"/>
+    <sheet name="Test Scenerios" sheetId="6" r:id="rId2"/>
+    <sheet name="Version Story" sheetId="3" r:id="rId3"/>
+    <sheet name="Bugreport" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
   <si>
     <t>TestID</t>
   </si>
@@ -438,6 +439,42 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>Req#ID</t>
+  </si>
+  <si>
+    <t>Scenerio(What to test)</t>
+  </si>
+  <si>
+    <t>Number of Test Cases</t>
+  </si>
+  <si>
+    <t>ESS user Login (EmpLoyee self Service)</t>
+  </si>
+  <si>
+    <t>Ess can view  Personal Details</t>
+  </si>
+  <si>
+    <t>Ess can edit personal details</t>
+  </si>
+  <si>
+    <t>Ess can not edit  restricted personal details</t>
+  </si>
+  <si>
+    <t>3.1.3.</t>
+  </si>
+  <si>
+    <t>3.1.4.</t>
+  </si>
+  <si>
+    <t>Ess can add  multiple emergency contact</t>
+  </si>
+  <si>
+    <t>Ess can delete emergency contact</t>
   </si>
 </sst>
 </file>
@@ -468,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +557,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,6 +743,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691F20B4-D189-4763-A4BC-CC86D79D46FA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1609,6 +1675,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CBF57E-41BC-4C82-A262-324F44EF8F63}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3CD5-8513-4A8B-83B4-1E6B277A3E66}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1743,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500B0F2E-BD23-40B3-BA32-87D2F60448EC}">
   <dimension ref="A1:N3"/>
   <sheetViews>
